--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1100197.944136796</v>
+        <v>1104794.366897286</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12744834.49889432</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283221</v>
+        <v>1759984.410099418</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11135282.32728643</v>
+        <v>10513324.36052305</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>52.83391759428133</v>
       </c>
       <c r="D2" t="n">
-        <v>336.8518318312767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657088</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>121.4856996582651</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107927</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>19.49168497188327</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>77.12676199618197</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>131.552212841269</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>147.2339392611577</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>57.89934023899356</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677259</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444106</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>82.93377084804277</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>22.65115569188575</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>1.374694529726718</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634776</v>
+        <v>301.2402584038916</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>115.0138334144182</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>162.810015186839</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695258</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>40.15381658332824</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>154.3624264312325</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>91.89996056624763</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>49.47951409793519</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>109.9946371007651</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>221.6488161050624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>132.9110887505218</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>128.7519695797257</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428172</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>65.31126771337246</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>177.0850116794024</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.32649042089668</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>83.39222993662297</v>
       </c>
     </row>
     <row r="38">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>64.13206468856599</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>64.13206468856599</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>64.13206468856667</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>41.1667312069662</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4309,19 +4309,19 @@
         <v>2029.57251526313</v>
       </c>
       <c r="C2" t="n">
-        <v>1660.609998322718</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4488,52 +4488,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>189.224944369825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754391</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.105239813979</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="D5" t="n">
-        <v>1251.839541207228</v>
+        <v>899.0708859371146</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>899.0708859371146</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4606,13 +4606,13 @@
         <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794324</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818512</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4767,10 +4767,10 @@
         <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221567</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744046</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761603</v>
+        <v>535.9822032813804</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>124.9962984917728</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4953,61 +4953,61 @@
         <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.81350961146</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.54781100471</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406465</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168579</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362654</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694704</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468466</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.899304487667</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C13" t="n">
-        <v>558.019349243338</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310022</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310022</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797182</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580259</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235163</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258104</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602302</v>
+        <v>507.434506214537</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396415</v>
+        <v>506.0459258814797</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359454</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614369</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179067</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192586</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111713</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615994</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>577.388077746847</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991042</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057737</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X16" t="n">
-        <v>1268.904861472874</v>
+        <v>403.4802848832067</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329344</v>
+        <v>182.6877057396765</v>
       </c>
     </row>
     <row r="17">
@@ -5506,43 +5506,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,34 +5579,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>449.4852666057155</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>301.5721730233224</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>968.6254803090558</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>713.9409921031689</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>713.9409921031689</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>558.0193492433381</v>
       </c>
     </row>
     <row r="20">
@@ -5743,61 +5743,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>409.6427934737892</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>186.6449060441816</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1390.576234140322</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1101.50100748452</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1101.50100748452</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>812.0838374475591</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>812.0838374475591</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>591.2912583040289</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6004,25 +6004,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855604</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>204.9223570891488</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1086.700451332367</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>832.0159631264798</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>542.5987930895193</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>314.6092421915019</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6487,28 +6487,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>521.8988905676762</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>931.5369062959332</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>703.5473553979159</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>703.5473553979159</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>554.5813165460164</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="C34" t="n">
-        <v>385.6451336181095</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="D34" t="n">
-        <v>235.5284942057738</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T34" t="n">
-        <v>2018.188796316454</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U34" t="n">
-        <v>1729.113569660651</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V34" t="n">
-        <v>1474.429081454764</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W34" t="n">
-        <v>1185.011911417804</v>
+        <v>387.7771914342442</v>
       </c>
       <c r="X34" t="n">
-        <v>957.0223605197863</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="Y34" t="n">
-        <v>736.2297813762561</v>
+        <v>159.7876405362269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,46 +6925,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>379.3891055132858</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>158.5965263697557</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,16 +7417,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7505,7 +7505,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>379.3891055132858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>158.5965263697557</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>726.955532171245</v>
+        <v>158.5965263697564</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V46" t="n">
-        <v>1646.803297079993</v>
+        <v>896.7958264482644</v>
       </c>
       <c r="W46" t="n">
-        <v>1357.386127043032</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="X46" t="n">
-        <v>1129.396576145015</v>
+        <v>379.3891055132865</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.6039970014847</v>
+        <v>158.5965263697564</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>266.3071978693703</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>144.5956654067421</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>250.7629487941013</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>81.49358325958895</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>64.81814676751911</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182224</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>62.89964020219819</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>105.267231439603</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>71.34722895780462</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>73.62417772602122</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>167.9259362293531</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>35.42641092216613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>30.48882721876564</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>153.2733856387223</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>38.49485151890212</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>80.10978030955879</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>40.32043864788585</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>125.5054897610406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>135.1924234154718</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>76.1626481576579</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,13 +25599,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>76.1626481576579</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>103.1147564100612</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>210.9709121168618</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>962425.9658310403</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>962425.9658310404</v>
+        <v>773246.2968165616</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>962425.9658310404</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>962425.9658310406</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>962425.9658310404</v>
+        <v>920300.368870655</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>962425.9658310405</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>962425.9658310403</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>962425.9658310405</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>962425.9658310405</v>
+        <v>920300.3688706553</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>962425.9658310405</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>962425.9658310405</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>962425.9658310405</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217535</v>
+        <v>378397.1239740616</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217536</v>
+        <v>378397.1239740617</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>450359.7549792568</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217535</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>450359.7549792568</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>450359.7549792568</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>450359.7549792567</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598204</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,19 +26395,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545141</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835453</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835456</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835454</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1058176.412721075</v>
+        <v>-1058176.412721076</v>
       </c>
       <c r="C6" t="n">
-        <v>270568.3330065171</v>
+        <v>270568.3330065175</v>
       </c>
       <c r="D6" t="n">
         <v>270568.3330065174</v>
       </c>
       <c r="E6" t="n">
-        <v>22400.22789426764</v>
+        <v>303098.7368858453</v>
       </c>
       <c r="F6" t="n">
-        <v>347812.6897016218</v>
+        <v>303098.7368858453</v>
       </c>
       <c r="G6" t="n">
-        <v>347812.6897016222</v>
+        <v>38538.28495339917</v>
       </c>
       <c r="H6" t="n">
-        <v>347812.6897016221</v>
+        <v>348381.3184132193</v>
       </c>
       <c r="I6" t="n">
-        <v>347812.6897016222</v>
+        <v>348381.3184132198</v>
       </c>
       <c r="J6" t="n">
-        <v>130281.4873043447</v>
+        <v>130850.116015942</v>
       </c>
       <c r="K6" t="n">
-        <v>347812.6897016222</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="L6" t="n">
-        <v>347812.6897016221</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="M6" t="n">
-        <v>262757.6617661105</v>
+        <v>348381.3184132196</v>
       </c>
       <c r="N6" t="n">
-        <v>347812.6897016222</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="O6" t="n">
-        <v>347812.6897016223</v>
+        <v>266245.4878177682</v>
       </c>
       <c r="P6" t="n">
-        <v>347812.6897016223</v>
+        <v>348381.3184132194</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="E4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,26 +26959,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>278.1987997483759</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483748</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>312.4389741767262</v>
       </c>
       <c r="D2" t="n">
-        <v>17.83120978940627</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>58.34628052367219</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>362.4386851003785</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>329.7492837455295</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776814</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>259.6421064805537</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>353.0223854144599</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351647</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28490,7 +28490,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.992125645415702e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990659</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>700.080820443724</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>595.3275373121714</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>595.3275373121714</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33736,13 +33736,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>398.1179220955534</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770475</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992795</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288382</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288382</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37384,13 +37384,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
